--- a/AI_genegator/plitka_brands_try.xlsx
+++ b/AI_genegator/plitka_brands_try.xlsx
@@ -1,161 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D218B8C-CE58-4BD2-8CC2-46F4CE1DC441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>ID раздела</t>
-  </si>
-  <si>
-    <t>Название раздела</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>55133</t>
-  </si>
-  <si>
-    <t>Азербайджанская плитка</t>
-  </si>
-  <si>
-    <t>Ceramicoin</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;Фабрика Ceramicoin: Искусство Керамики из Сердца Азербайджана&lt;/h1&gt; 
-&lt;p&gt;В самом сердце Азербайджана, среди богатых традиций и уникального культурного наследия, находится фабрика &lt;strong&gt;Ceramicoin&lt;/strong&gt; — место, где керамика становится искусством, а инновации встречаются с мастерством. Это не просто производство плитки, керамогранита, мозаики или клинкерных ступеней, это настоящая лаборатория дизайна, где каждая деталь воплощает красоту и практичность.&lt;/p&gt; 
-&lt;h2&gt;Технологии, вдохновленные природой&lt;/h2&gt; 
-&lt;p&gt;Фабрика Ceramicoin гордится своей способностью сочетать передовые технологии с вдохновением, которое дарит окружающая природа. Используя натуральные материалы и современные методы производства, компания создает продукцию, которая не только радует глаз, но и служит десятилетиями. Уникальные текстуры, глубокие оттенки и невероятная прочность — вот что делает плитку Ceramicoin выбором профессионалов и эстетов.&lt;/p&gt; 
-&lt;h2&gt;Ассортимент, который вдохновляет&lt;/h2&gt; 
-&lt;p&gt;От элегантной мозаики для акцентов до прочного керамогранита, способного выдержать самые суровые условия, фабрика Ceramicoin предлагает решения для любого интерьера и экстерьера. Клинкерные ступени станут идеальным дополнением для террас и лестниц, а эксклюзивные коллекции плитки подчеркнут изысканный вкус любого пространства. Каждый элемент проходит строгий контроль качества, чтобы соответствовать мировым стандартам.&lt;/p&gt; 
-&lt;h2&gt;Интересные факты о Ceramicoin&lt;/h2&gt; 
-&lt;ul&gt; 
-  &lt;li&gt;Фабрика расположена в регионе, богатом природными ресурсами, что позволяет использовать высококачественное сырье местного происхождения.&lt;/li&gt; 
-  &lt;li&gt;Ceramicoin активно внедряет экологически чистые технологии, минимизируя влияние на окружающую среду.&lt;/li&gt; 
-  &lt;li&gt;Каждая коллекция плитки вдохновлена культурным наследием Азербайджана, отражая орнаменты, цвета и формы местной архитектуры.&lt;/li&gt; 
-  &lt;li&gt;Фабрика сотрудничает с ведущими дизайнерами и архитекторами, создавая эксклюзивные линейки продукции.&lt;/li&gt; 
-&lt;/ul&gt;
-&lt;h2&gt;Почему выбирают Ceramicoin?&lt;/h2&gt; 
-&lt;p&gt;Традиции и инновации, качество и стиль — вот основные принципы, которыми руководствуется Ceramicoin. Каждый клиент фабрики знает, что здесь создают не просто плитку, а продукт, который станет частью его жизни, добавив интерьеру неповторимый характер и индивидуальность.&lt;/p&gt; 
-&lt;p&gt;&lt;strong&gt;С Ceramicoin вы выбираете не просто плитку, вы выбираете искусство, созданное с душой.&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>53873</t>
-  </si>
-  <si>
-    <t>Арабская плитка</t>
-  </si>
-  <si>
-    <t>Rak Ceramics</t>
-  </si>
-  <si>
-    <t>&lt;h1&gt;Фабрика Rak Ceramics: Искусство создавать совершенство&lt;/h1&gt;
-&lt;p&gt;В сердце жаркой и колоритной страны, которую по праву можно назвать "Арабской плиткой", расположена фабрика &lt;strong&gt;Rak Ceramics&lt;/strong&gt; — место, где традиции Востока встречаются с новейшими технологиями, чтобы создавать настоящие шедевры отделочных материалов. Эта фабрика стала не просто производителем, а символом качества, инноваций и утонченного стиля.&lt;/p&gt;
-&lt;h2&gt;Особенности фабрики и ее философия&lt;/h2&gt;
-&lt;p&gt;Rak Ceramics — это не просто фабрика, это настоящая &lt;em&gt;лаборатория дизайна&lt;/em&gt;, где каждое изделие рождается с душой. С момента своего основания фабрика сделала ставку на три главные ценности: качество, инновации и экологичность. Здесь мастерство переплетается с передовыми технологиями, что позволяет создавать продукцию, которая впечатляет своей долговечностью, эстетикой и уникальными характеристиками.&lt;/p&gt;
-&lt;p&gt;На площади более &lt;strong&gt;1 миллиона квадратных метров&lt;/strong&gt; расположены современные производственные линии, оснащенные новейшим оборудованием, которое позволяет выпускать до &lt;strong&gt;123 миллионов квадратных метров плитки&lt;/strong&gt; в год. Это делает Rak Ceramics одной из крупнейших фабрик по производству плитки и керамогранита в мире!&lt;/p&gt;
-&lt;h2&gt;Продукция, вдохновленная природой&lt;/h2&gt;
-&lt;p&gt;Ассортимент Rak Ceramics поражает своим разнообразием. Здесь производят не только плитку, но и керамогранит, мозаику, клинкерные ступени и даже санфаянс. Коллекции вдохновлены текстурами природного камня, древесины, мрамора и бетона, но при этом каждая плитка обладает своей уникальной изюминкой.&lt;/p&gt;
-&lt;p&gt;Продукция фабрики отличается невероятной износостойкостью и устойчивостью к любым воздействиям — будь то жаркие солнечные лучи пустыни или суровые морозы. Неудивительно, что плитка Rak Ceramics украшает не только дома, но и элитные отели, торговые центры и общественные пространства по всему миру.&lt;/p&gt;
-&lt;h2&gt;Интересные факты о фабрике&lt;/h2&gt;
-&lt;ul&gt;
-  &lt;li&gt;Rak Ceramics входит в ТОП-5 крупнейших производителей плитки и керамогранита в мире.&lt;/li&gt;
-  &lt;li&gt;Каждая коллекция разрабатывается с участием ведущих дизайнеров со всего мира, чтобы соответствовать последним трендам в интерьерах.&lt;/li&gt;
-  &lt;li&gt;Фабрика активно внедряет экологически чистые технологии и перерабатывает более &lt;strong&gt;99% отходов&lt;/strong&gt; производства.&lt;/li&gt;
-  &lt;li&gt;Rak Ceramics — обладатель множества международных наград за дизайн и качество своей продукции, включая престижные премии Red Dot и iF Design Award.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h2&gt;Почему выбирают Rak Ceramics?&lt;/h2&gt;
-&lt;p&gt;Каждый покупатель, выбирая плитку Rak Ceramics, получает не просто материал для отделки, а настоящее произведение искусства, которое сохраняет свою красоту и функциональность десятилетиями. Это выбор тех, кто ценит качество, стиль и заботу о деталях.&lt;/p&gt;
-&lt;p&gt;Rak Ceramics — это не просто бренд. Это гарантия того, что любое пространство, оформленное с использованием их продукции, станет отражением роскоши, комфорта и безупречного вкуса.&lt;/p&gt;
-&lt;h3&gt;Rak Ceramics: когда плитка становится искусством!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>58137</t>
-  </si>
-  <si>
-    <t>Бельгийская плитка</t>
-  </si>
-  <si>
-    <t>Revoir Paris</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Revoir Paris — Искусство Создавать Совершенство&lt;/h2&gt;
-&lt;p&gt;В самом сердце Бельгии, где элегантность и мастерство становятся синонимами, расположена фабрика &lt;strong&gt;Revoir Paris&lt;/strong&gt; — настоящий храм плиточного искусства. Это не просто производственное предприятие, это место, где традиции бельгийского дизайна встречаются с инновационными технологиями, создавая плитку, которая вдохновляет.&lt;/p&gt;
-&lt;h3&gt;Изысканность в каждой детали&lt;/h3&gt;
-&lt;p&gt;Каждый элемент, выходящий из стен фабрики Revoir Paris, — это результат кропотливого труда дизайнеров, инженеров и мастеров-ремесленников. Плитка, керамогранит, мозаика и клинкерные ступени, созданные здесь, поражают своим качеством, долговечностью и эстетической выразительностью. Каждая коллекция будто рассказывает свою историю, вдохновленную бельгийскими традициями, природной красотой и современными трендами архитектуры.&lt;/p&gt;
-&lt;h3&gt;Секреты мастерства&lt;/h3&gt;
-&lt;ul&gt;
-  &lt;li&gt;&lt;strong&gt;Уникальные технологии:&lt;/strong&gt; На фабрике используются передовые методы производства, включая цифровую печать высочайшего разрешения, что позволяет создавать текстуры и узоры с невероятной детализацией.&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;Эко-фокус:&lt;/strong&gt; Revoir Paris гордится своей приверженностью устойчивому развитию. Каждый этап производства оптимизирован для минимального воздействия на окружающую среду, а продукция изготавливается из экологически чистых материалов.&lt;/li&gt;
-  &lt;li&gt;&lt;strong&gt;Ручная отделка:&lt;/strong&gt; Некоторые коллекции проходят дополнительную ручную обработку, что придаёт плитке особый шарм и уникальность.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3&gt;Особенности продукции&lt;/h3&gt;
-&lt;p&gt;Продукция Revoir Paris — это не просто строительный материал, это элемент дизайна, способный преобразить любое пространство. Плитка от этой фабрики идеально подходит для создания &lt;em&gt;шикарных интерьеров&lt;/em&gt;, стильных фасадов и функциональных лестниц. Коллекции включают как классические, так и ультрасовременные дизайны, позволяя каждому найти решение, соответствующее своему вкусу.&lt;/p&gt;
-&lt;h3&gt;Интересный факт&lt;/h3&gt;
-&lt;p&gt;Название фабрики &lt;strong&gt;Revoir Paris&lt;/strong&gt; переводится как «Увидеть Париж снова», и это неслучайно. Основатели предприятия вдохновлялись парижским шиком и европейским наследием. Каждая плитка несёт в себе частичку той самой романтики, которую можно почувствовать, прогуливаясь по старинным улочкам Парижа.&lt;/p&gt;
-&lt;h3&gt;Почему выбирают Revoir Paris?&lt;/h3&gt;
-&lt;p&gt;Потому что эта фабрика — синоним качества, утончённости и креативности. Сотрудничая с ведущими архитекторами и дизайнерами, Revoir Paris создаёт продукцию, которая дарит вдохновение и помогает воплощать самые смелые идеи.&lt;/p&gt;
-&lt;h3&gt;Revoir Paris: когда каждая плитка — произведение искусства&lt;/h3&gt;
-&lt;p&gt;Плитка от Revoir Paris — это выбор тех, кто ценит эстетику, комфорт и долговечность. Это не просто материал, это инструмент для создания истории, которая будет жить десятилетиями. Добро пожаловать в мир, где плитка становится искусством!&lt;/p&gt;</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,33 +66,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -521,76 +475,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="22.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="122.5703125" style="3" customWidth="1"/>
+    <col width="22.28515625" customWidth="1" style="3" min="1" max="3"/>
+    <col width="122.5703125" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+    <row r="1" ht="14.45" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID раздела</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Название раздела</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Название раздела</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+    <row r="2" ht="409.5" customHeight="1" s="3">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>53873</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Арабская плитка</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Rak Ceramics</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;Rak Ceramics: Искусство превращать идеи в керамические шедевры&lt;/h1&gt;
+&lt;p&gt;В сердце блистательного Востока, в стране, где пески пустынь встречаются с современными технологиями, находится настоящая жемчужина индустрии – фабрика &lt;strong&gt;Rak Ceramics&lt;/strong&gt;. Это не просто завод, а место, где рождаются керамические произведения искусства, вдохновленные природой, культурой и стремлением к совершенству.&lt;/p&gt;
+&lt;h2&gt;Совершенство в каждой детали&lt;/h2&gt;
+&lt;p&gt;Rak Ceramics – это не фабрика в обычном понимании слова. Это инновационная площадка, где каждая плитка, керамогранит или мозаичный элемент проходит путь от смелой дизайнерской идеи до готового продукта. Все начинается с тщательного выбора материалов, которые обрабатываются с использованием передовых технологий, чтобы создать продукцию, которая сочетает в себе прочность, изысканность и долговечность.&lt;/p&gt;
+&lt;p&gt;Особенностью фабрики является не только высокотехнологичное оборудование, но и уникальный подход к процессу. Здесь традиции восточного мастерства переплетаются с современными европейскими трендами, создавая коллекции, которые способны украсить любой интерьер. От минималистичных решений до роскошных орнаментов – продукция &lt;strong&gt;Rak Ceramics&lt;/strong&gt; всегда на пике моды и качества.&lt;/p&gt;
+&lt;h3&gt;Инновации, которые вдохновляют&lt;/h3&gt;
+&lt;p&gt;Rak Ceramics гордится своей репутацией одного из лидеров в области керамического производства. Завод стал пионером в использовании технологий цифровой печати HD, позволяя создавать уникальные текстуры, которые невозможно отличить от натурального камня, дерева или бетона. Это делает плитку не только эстетически привлекательной, но и универсальной для любых дизайнерских решений.&lt;/p&gt;
+&lt;p&gt;Интересный факт: фабрика может производить до 123 миллионов квадратных метров плитки в год! Это эквивалентно площади более 16 тысяч футбольных полей. Такой масштаб позволяет Rak Ceramics обеспечивать продукцией сотни проектов по всему миру – от уютных квартир до грандиозных архитектурных комплексов.&lt;/p&gt;
+&lt;h2&gt;Эстетика, проверенная временем&lt;/h2&gt;
+&lt;p&gt;Продукция фабрики славится не только своей красотой, но и исключительной надежностью. Керамогранитные плиты выдерживают экстремальные температуры, мозаика радует идеальной геометрией, а клинкерные ступени противостоят погодным воздействиям, сохраняя первозданный вид даже спустя годы. Вот почему их выбирают как дизайнеры элитных интерьеров, так и владельцы уютных домов.&lt;/p&gt;
+&lt;h3&gt;Ответственность перед миром&lt;/h3&gt;
+&lt;p&gt;Rak Ceramics уделяет особое внимание экологической устойчивости. Фабрика внедряет технологии, которые минимизируют отходы производства и сокращают выбросы углекислого газа. Это пример того, как можно создавать красоту, оставаясь в гармонии с природой.&lt;/p&gt;
+&lt;h2&gt;Rak Ceramics – ваш выбор для безупречного стиля&lt;/h2&gt;
+&lt;p&gt;Каждое изделие от Rak Ceramics – это больше, чем просто плитка. Это история, которая рассказывает о мастерстве, страсти и стремлении к идеалу. Если вы ищете продукцию, которая вдохновляет, удивляет и украшает, Rak Ceramics – это имя, которому можно доверять.&lt;/p&gt;</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+    <row r="3" ht="409.5" customHeight="1" s="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>58137</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Бельгийская плитка</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Revoir Paris</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>&lt;section&gt;  
+  &lt;h1&gt;Revoir Paris: Бельгийское искусство керамики&lt;/h1&gt;  
+  &lt;p&gt;В самом сердце Европы, где традиции ремесел соединяются с передовыми технологиями, расположилась фабрика &lt;strong&gt;Revoir Paris&lt;/strong&gt;. Это не просто производство плитки, это настоящая мастерская вдохновения, где каждая деталь становится отражением изысканного бельгийского стиля. Здесь создаются изделия, которые превращают интерьеры в произведения искусства.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Искусство в каждой плитке&lt;/h2&gt;  
+  &lt;p&gt;Продукция &lt;em&gt;Revoir Paris&lt;/em&gt; — это симфония формы, цвета и текстуры. Коллекции включают керамогранит, мозаику и клинкерные ступени, которые поражают своей элегантностью и долговечностью. Каждая плитка проходит строгий контроль качества, чтобы стать идеальным решением для вашего дома или коммерческого пространства. Благодаря инновационным технологиям, фабрика создает покрытия, устойчивые к износу, влаге и времени.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Традиции в союзе с инновациями&lt;/h2&gt;  
+  &lt;p&gt;Фабрика &lt;strong&gt;Revoir Paris&lt;/strong&gt; гордится своей историей. Вдохновляясь бельгийскими традициями керамического ремесла, мастера создают продукцию, которая сочетает в себе вековые знания и самые современные технологии. Каждая коллекция — это баланс между классическими мотивами и современным дизайном, что делает плитку универсальным решением для интерьеров любого стиля.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Интересные факты о фабрике&lt;/h2&gt;  
+  &lt;ul&gt;  
+    &lt;li&gt;Процесс производства на фабрике полностью экологичен: используются природные материалы и технологии переработки отходов.&lt;/li&gt;  
+    &lt;li&gt;В некоторых коллекциях плитки можно найти элементы, вдохновленные древними узорами бельгийских соборов.&lt;/li&gt;  
+    &lt;li&gt;Каждая единица продукции создается с учетом локального климата Бельгии, что делает её идеальной для использования в любых погодных условиях.&lt;/li&gt;  
+  &lt;/ul&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Выбор, который вдохновляет&lt;/h2&gt;  
+  &lt;p&gt;Плитка от &lt;em&gt;Revoir Paris&lt;/em&gt; — это не просто строительный материал, а инструмент для воплощения самых смелых дизайнерских идей. Независимо от того, создаете ли вы уютную атмосферу в своем доме или хотите подчеркнуть статус вашего бизнеса, изделия фабрики станут идеальным акцентом.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Revoir Paris: Бельгия в вашем интерьере&lt;/h2&gt;  
+  &lt;p&gt;Фабрика &lt;strong&gt;Revoir Paris&lt;/strong&gt; — это выбор тех, кто ценит качество, стиль и уникальность. Позвольте бельгийскому мастерству украсить ваше пространство и вдохновить вас на новые свершения. Ведь каждая плитка от &lt;em&gt;Revoir Paris&lt;/em&gt; — это маленький шедевр, который несет в себе душу Бельгии.&lt;/p&gt;  
+&lt;/section&gt;</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/AI_genegator/plitka_brands_try.xlsx
+++ b/AI_genegator/plitka_brands_try.xlsx
@@ -1,56 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A174D2A-F49C-4F69-97AC-85B1E400FD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>ID раздела</t>
+  </si>
+  <si>
+    <t>Название раздела</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>53873</t>
+  </si>
+  <si>
+    <t>Арабская плитка</t>
+  </si>
+  <si>
+    <t>Rak Ceramics</t>
+  </si>
+  <si>
+    <t>&lt;section&gt;
+  &lt;h1&gt;Rak Ceramics — сочетание искусства, технологий и вдохновения&lt;/h1&gt;
+  &lt;p&gt;В сердце блистательного Ближнего Востока, в стране бесконечных песчаных дюн и древних традиций, расположилась фабрика, которая возвела производство плитки в ранг искусства. &lt;strong&gt;Rak Ceramics&lt;/strong&gt; — это не просто бренд, это синоним качества, изысканности и архитектурного совершенства. Здесь, на стыке традиций и инноваций, рождается плитка, способная превратить любое пространство в произведение искусства.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h2&gt;Технологическое превосходство и внимание к деталям&lt;/h2&gt;
+  &lt;p&gt;Фабрика Rak Ceramics поражает своими масштабами и мощностью. Её производственные линии — это симфония современных технологий: передовые печи, роботизированные системы резки и уникальные методы декорирования. Каждый этап производства здесь — это смесь инженерной точности и дизайнерской креативности. Продукция фабрики отличается исключительной стойкостью, экологической безопасностью и безупречной эстетикой.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h2&gt;Продукция, вдохновлённая природой и культурой&lt;/h2&gt;
+  &lt;p&gt;Плитка, керамогранит, мозаика, клинкерные ступени — всё, что создаётся на фабрике Rak Ceramics, вдохновлено природной красотой и культурным наследием региона. От мягких оттенков песка до насыщенных цветов восточного орнамента — каждая коллекция отражает гармонию мира вокруг нас. При этом фабрика использует инновационные технологии цифровой печати, создавая текстуры, которые невозможно отличить от натурального камня, дерева или мрамора.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h2&gt;Международное признание и уникальные факты&lt;/h2&gt;
+  &lt;p&gt;Rak Ceramics — один из крупнейших производителей плитки в мире, и её продукция экспортируется в более чем 150 стран. Ежегодно фабрика выпускает более 123 миллионов квадратных метров плитки, соперничая с мировыми лидерами в своей отрасли. Интересно, что именно Rak Ceramics первой в регионе внедрила технологию ультратонкого керамогранита, который сочетает лёгкость и невероятную прочность.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h2&gt;Доверие профессионалов и вдохновение для каждого&lt;/h2&gt;
+  &lt;p&gt;Архитекторы, дизайнеры и строители по всему миру выбирают &lt;strong&gt;Rak Ceramics&lt;/strong&gt; за её качество и универсальность. От стильных интерьеров домов до масштабных коммерческих проектов — плитка фабрики становится основой для самых амбициозных идей. И это неудивительно, ведь в каждом изделии бренда чувствуется душа мастеров, которые с любовью создают эти шедевры.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h2&gt;Rak Ceramics: создавая пространство мечты&lt;/h2&gt;
+  &lt;p&gt;Ищете идеальное сочетание красоты, долговечности и функциональности? Добро пожаловать в мир &lt;em&gt;Рак Керамикс&lt;/em&gt;, где каждая плитка — это приглашение в мир элегантности и стиля. Здесь ценят не просто материалы, а эмоции, которые они вызывают. Rak Ceramics — это фабрика, которая превращает мечты в реальность, квадратный метр за квадратным метром.&lt;/p&gt;
+&lt;/section&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="1"/>
       <charset val="204"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="1"/>
       <charset val="204"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,92 +120,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -475,127 +470,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="22.28515625" customWidth="1" style="3" min="1" max="3"/>
-    <col width="122.5703125" customWidth="1" style="3" min="4" max="4"/>
+    <col min="1" max="3" width="22.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="171.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.45" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ID раздела</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Название раздела</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Название раздела</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Описание</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" ht="409.5" customHeight="1" s="3">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>53873</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Арабская плитка</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Rak Ceramics</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>&lt;h1&gt;Rak Ceramics: Искусство превращать идеи в керамические шедевры&lt;/h1&gt;
-&lt;p&gt;В сердце блистательного Востока, в стране, где пески пустынь встречаются с современными технологиями, находится настоящая жемчужина индустрии – фабрика &lt;strong&gt;Rak Ceramics&lt;/strong&gt;. Это не просто завод, а место, где рождаются керамические произведения искусства, вдохновленные природой, культурой и стремлением к совершенству.&lt;/p&gt;
-&lt;h2&gt;Совершенство в каждой детали&lt;/h2&gt;
-&lt;p&gt;Rak Ceramics – это не фабрика в обычном понимании слова. Это инновационная площадка, где каждая плитка, керамогранит или мозаичный элемент проходит путь от смелой дизайнерской идеи до готового продукта. Все начинается с тщательного выбора материалов, которые обрабатываются с использованием передовых технологий, чтобы создать продукцию, которая сочетает в себе прочность, изысканность и долговечность.&lt;/p&gt;
-&lt;p&gt;Особенностью фабрики является не только высокотехнологичное оборудование, но и уникальный подход к процессу. Здесь традиции восточного мастерства переплетаются с современными европейскими трендами, создавая коллекции, которые способны украсить любой интерьер. От минималистичных решений до роскошных орнаментов – продукция &lt;strong&gt;Rak Ceramics&lt;/strong&gt; всегда на пике моды и качества.&lt;/p&gt;
-&lt;h3&gt;Инновации, которые вдохновляют&lt;/h3&gt;
-&lt;p&gt;Rak Ceramics гордится своей репутацией одного из лидеров в области керамического производства. Завод стал пионером в использовании технологий цифровой печати HD, позволяя создавать уникальные текстуры, которые невозможно отличить от натурального камня, дерева или бетона. Это делает плитку не только эстетически привлекательной, но и универсальной для любых дизайнерских решений.&lt;/p&gt;
-&lt;p&gt;Интересный факт: фабрика может производить до 123 миллионов квадратных метров плитки в год! Это эквивалентно площади более 16 тысяч футбольных полей. Такой масштаб позволяет Rak Ceramics обеспечивать продукцией сотни проектов по всему миру – от уютных квартир до грандиозных архитектурных комплексов.&lt;/p&gt;
-&lt;h2&gt;Эстетика, проверенная временем&lt;/h2&gt;
-&lt;p&gt;Продукция фабрики славится не только своей красотой, но и исключительной надежностью. Керамогранитные плиты выдерживают экстремальные температуры, мозаика радует идеальной геометрией, а клинкерные ступени противостоят погодным воздействиям, сохраняя первозданный вид даже спустя годы. Вот почему их выбирают как дизайнеры элитных интерьеров, так и владельцы уютных домов.&lt;/p&gt;
-&lt;h3&gt;Ответственность перед миром&lt;/h3&gt;
-&lt;p&gt;Rak Ceramics уделяет особое внимание экологической устойчивости. Фабрика внедряет технологии, которые минимизируют отходы производства и сокращают выбросы углекислого газа. Это пример того, как можно создавать красоту, оставаясь в гармонии с природой.&lt;/p&gt;
-&lt;h2&gt;Rak Ceramics – ваш выбор для безупречного стиля&lt;/h2&gt;
-&lt;p&gt;Каждое изделие от Rak Ceramics – это больше, чем просто плитка. Это история, которая рассказывает о мастерстве, страсти и стремлении к идеалу. Если вы ищете продукцию, которая вдохновляет, удивляет и украшает, Rak Ceramics – это имя, которому можно доверять.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="409.5" customHeight="1" s="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>58137</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Бельгийская плитка</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Revoir Paris</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>&lt;section&gt;  
-  &lt;h1&gt;Revoir Paris: Бельгийское искусство керамики&lt;/h1&gt;  
-  &lt;p&gt;В самом сердце Европы, где традиции ремесел соединяются с передовыми технологиями, расположилась фабрика &lt;strong&gt;Revoir Paris&lt;/strong&gt;. Это не просто производство плитки, это настоящая мастерская вдохновения, где каждая деталь становится отражением изысканного бельгийского стиля. Здесь создаются изделия, которые превращают интерьеры в произведения искусства.&lt;/p&gt;  
-&lt;/section&gt;  
-&lt;section&gt;  
-  &lt;h2&gt;Искусство в каждой плитке&lt;/h2&gt;  
-  &lt;p&gt;Продукция &lt;em&gt;Revoir Paris&lt;/em&gt; — это симфония формы, цвета и текстуры. Коллекции включают керамогранит, мозаику и клинкерные ступени, которые поражают своей элегантностью и долговечностью. Каждая плитка проходит строгий контроль качества, чтобы стать идеальным решением для вашего дома или коммерческого пространства. Благодаря инновационным технологиям, фабрика создает покрытия, устойчивые к износу, влаге и времени.&lt;/p&gt;  
-&lt;/section&gt;  
-&lt;section&gt;  
-  &lt;h2&gt;Традиции в союзе с инновациями&lt;/h2&gt;  
-  &lt;p&gt;Фабрика &lt;strong&gt;Revoir Paris&lt;/strong&gt; гордится своей историей. Вдохновляясь бельгийскими традициями керамического ремесла, мастера создают продукцию, которая сочетает в себе вековые знания и самые современные технологии. Каждая коллекция — это баланс между классическими мотивами и современным дизайном, что делает плитку универсальным решением для интерьеров любого стиля.&lt;/p&gt;  
-&lt;/section&gt;  
-&lt;section&gt;  
-  &lt;h2&gt;Интересные факты о фабрике&lt;/h2&gt;  
-  &lt;ul&gt;  
-    &lt;li&gt;Процесс производства на фабрике полностью экологичен: используются природные материалы и технологии переработки отходов.&lt;/li&gt;  
-    &lt;li&gt;В некоторых коллекциях плитки можно найти элементы, вдохновленные древними узорами бельгийских соборов.&lt;/li&gt;  
-    &lt;li&gt;Каждая единица продукции создается с учетом локального климата Бельгии, что делает её идеальной для использования в любых погодных условиях.&lt;/li&gt;  
-  &lt;/ul&gt;  
-&lt;/section&gt;  
-&lt;section&gt;  
-  &lt;h2&gt;Выбор, который вдохновляет&lt;/h2&gt;  
-  &lt;p&gt;Плитка от &lt;em&gt;Revoir Paris&lt;/em&gt; — это не просто строительный материал, а инструмент для воплощения самых смелых дизайнерских идей. Независимо от того, создаете ли вы уютную атмосферу в своем доме или хотите подчеркнуть статус вашего бизнеса, изделия фабрики станут идеальным акцентом.&lt;/p&gt;  
-&lt;/section&gt;  
-&lt;section&gt;  
-  &lt;h2&gt;Revoir Paris: Бельгия в вашем интерьере&lt;/h2&gt;  
-  &lt;p&gt;Фабрика &lt;strong&gt;Revoir Paris&lt;/strong&gt; — это выбор тех, кто ценит качество, стиль и уникальность. Позвольте бельгийскому мастерству украсить ваше пространство и вдохновить вас на новые свершения. Ведь каждая плитка от &lt;em&gt;Revoir Paris&lt;/em&gt; — это маленький шедевр, который несет в себе душу Бельгии.&lt;/p&gt;  
-&lt;/section&gt;</t>
-        </is>
+    <row r="2" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/AI_genegator/plitka_brands_try.xlsx
+++ b/AI_genegator/plitka_brands_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A174D2A-F49C-4F69-97AC-85B1E400FD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265ACAB-3EFD-42EA-8CF4-752FA4ED4748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,8 +476,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AI_genegator/plitka_brands_try.xlsx
+++ b/AI_genegator/plitka_brands_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265ACAB-3EFD-42EA-8CF4-752FA4ED4748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C831DEC-48EB-47E0-97D3-A774029909EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID раздела</t>
   </si>
@@ -40,29 +40,100 @@
     <t>Rak Ceramics</t>
   </si>
   <si>
+    <t>&lt;h1&gt;Место, где рождается совершенство: фабрика Rak Ceramics&lt;/h1&gt;
+&lt;p&gt;В самом сердце страны Арабская Плитка расположена фабрика, которая переворачивает представление о керамических покрытиях. Rak Ceramics — это не просто производство, это настоящая лаборатория дизайна и технологий, где каждый продукт становится произведением искусства. Здесь мастерство встречается с инновациями, создавая керамическую магию, которая вдохновляет архитекторов, дизайнеров и домовладельцев по всему миру.&lt;/p&gt;
+&lt;h2&gt;Особенности производства: технологии будущего&lt;/h2&gt;
+&lt;p&gt;Rak Ceramics — это не фабрика в привычном понимании, а высокотехнологичный комплекс, оснащенный по последнему слову техники. Производственные линии здесь работают на основе искусственного интеллекта, который гарантирует миллиметровую точность и неизменное качество. Секрет успеха фабрики — уникальная технология Digital Printing, позволяющая создавать плитку с реалистичной текстурой дерева, камня или мрамора. Каждый квадратный сантиметр продукции — это результат кропотливой работы и внедрения передовых решений.&lt;/p&gt;
+&lt;h3&gt;Ассортимент: от минимализма до роскоши&lt;/h3&gt;
+&lt;p&gt;Продукция Rak Ceramics — это симфония разнообразия. В ассортименте можно найти всё: от изысканной мозаики до прочных клинкерных ступеней, от керамогранита для экстерьеров до утонченной плитки для интерьеров. Каждая коллекция — это история, рассказанная через цвет, текстуру и форму. Хотите создать минималистичный лофт? Или превратить ванную комнату в оазис восточной роскоши? Rak Ceramics воплотит любую дизайнерскую мечту.&lt;/p&gt;
+&lt;h2&gt;Интересные факты: за кулисами керамического мастерства&lt;/h2&gt;
+&lt;ul&gt;
+  &lt;li&gt;Rak Ceramics производит более &lt;strong&gt;100 миллионов квадратных метров продукции&lt;/strong&gt; ежегодно, что делает её одним из крупнейших производителей керамики в мире.&lt;/li&gt;
+  &lt;li&gt;Фабрика использует экологически чистые технологии, перерабатывая до 99% отходов производства. Устойчивое развитие — их приоритет.&lt;/li&gt;
+  &lt;li&gt;Продукция бренда украшает интерьеры и экстерьеры более чем в &lt;strong&gt;150 странах&lt;/strong&gt;, от небоскребов Дубая до уютных домиков в Европе.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;h3&gt;Почему выбирают Rak Ceramics?&lt;/h3&gt;
+&lt;p&gt;Каждое изделие, будь то мозаика или клинкер, проходит строгий контроль качества. Фабрика вкладывает душу в каждую плитку, чтобы она радовала глаз и служила десятилетиями. Арабская версия бренда ("Рак Керамикс") стала символом надежности и эстетики, прочно закрепив своё место в сердцах покупателей.&lt;/p&gt;
+&lt;h2&gt;Когда технология встречается с искусством&lt;/h2&gt;
+&lt;p&gt;Rak Ceramics — это больше, чем фабрика. Это место, где технологии встречаются с искусством, создавая керамику, которая не просто украшает, а вдохновляет. Если вы хотите, чтобы ваш интерьер засиял уникальной эстетикой, а экстерьер стал образцом стиля — выбор очевиден. Rak Ceramics. Где керамика становится искусством.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>23162</t>
+  </si>
+  <si>
+    <t>Белорусская плитка</t>
+  </si>
+  <si>
+    <t>Березакерамика</t>
+  </si>
+  <si>
+    <t>&lt;section&gt;  
+  &lt;h1&gt;Березакерамика — искусство создавать совершенство&lt;/h1&gt;  
+  &lt;p&gt;Среди живописных пейзажей Беларуси, где природа вдохновляет на творчество, расположена фабрика &lt;strong&gt;Березакерамика&lt;/strong&gt; — лидер в производстве плитки, керамогранита, мозаики и клинкерных ступеней. Здесь, в сердце Европы, рождаются материалы, которые превращают дома в произведения искусства. Каждая плитка — это не просто элемент декора, это история стиля, качества и мастерства.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Современные технологии в союзе с традициями&lt;/h2&gt;  
+  &lt;p&gt;Фабрика &lt;em&gt;Березакерамика&lt;/em&gt; — это пример того, как инновации и вековые традиции могут гармонично сосуществовать. Здесь используются передовые технологии, такие как цифровая печать высокой четкости и экологичные методы обжига, чтобы каждая плитка была не только красивой, но и долговечной. Производство соответствует самым строгим европейским стандартам, а богатая палитра дизайнов позволяет воплотить самые смелые архитектурные идеи.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Экологичность и забота о будущем&lt;/h2&gt;  
+  &lt;p&gt;Завод в Березе — это не просто фабрика, это целая философия. При изготовлении продукции особое внимание уделяется экологии: минимизация углеродного следа, переработка сырья и использование возобновляемых источников энергии. &lt;strong&gt;«Berezaceramica»&lt;/strong&gt;, как её знают за границей, гордится тем, что создает красоту, не причиняя вреда окружающей среде.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Продукция, которая вдохновляет&lt;/h2&gt;  
+  &lt;p&gt;Ассортимент фабрики впечатляет разнообразием: от классической плитки для ванной до премиального керамогранита и стильных клинкерных ступеней. Каждый продукт отличается высокой устойчивостью к износу, влагостойкостью и изысканным дизайном. А мозаика от Березакерамика — это настоящая находка для тех, кто ищет нестандартные решения для интерьера.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Интересные факты о Березакерамика&lt;/h2&gt;  
+  &lt;ul&gt;  
+    &lt;li&gt;Ежегодно фабрика выпускает плитку, которой можно выложить поверхность, эквивалентную площади более 500 футбольных полей!&lt;/li&gt;  
+    &lt;li&gt;Дизайнерские коллекции &lt;em&gt;«BerezaCeramica»&lt;/em&gt; разрабатываются совместно с европейскими художниками, чтобы соответствовать мировым трендам в архитектуре и дизайне.&lt;/li&gt;  
+    &lt;li&gt;Мощности предприятия позволяют производить до 20 миллионов квадратных метров плитки в год, и эта цифра продолжает расти.&lt;/li&gt;  
+  &lt;/ul&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+  &lt;h2&gt;Березакерамика — ваш идеальный выбор&lt;/h2&gt;  
+  &lt;p&gt;Когда вы выбираете продукцию &lt;strong&gt;Березакерамика&lt;/strong&gt;, вы выбираете не просто плитку, а гармонию стиля, качества и заботы о природе. Это выбор тех, кто ценит эстетику, долговечность и инновации. Продукция фабрики уже украшает тысячи домов и общественных пространств по всему миру, и она готова стать частью вашего уникального проекта.&lt;/p&gt;  
+&lt;/section&gt;</t>
+  </si>
+  <si>
+    <t>59225</t>
+  </si>
+  <si>
+    <t>Германская плитка</t>
+  </si>
+  <si>
+    <t>ABC-Klinkergruppe</t>
+  </si>
+  <si>
     <t>&lt;section&gt;
-  &lt;h1&gt;Rak Ceramics — сочетание искусства, технологий и вдохновения&lt;/h1&gt;
-  &lt;p&gt;В сердце блистательного Ближнего Востока, в стране бесконечных песчаных дюн и древних традиций, расположилась фабрика, которая возвела производство плитки в ранг искусства. &lt;strong&gt;Rak Ceramics&lt;/strong&gt; — это не просто бренд, это синоним качества, изысканности и архитектурного совершенства. Здесь, на стыке традиций и инноваций, рождается плитка, способная превратить любое пространство в произведение искусства.&lt;/p&gt;
+  &lt;h1&gt;ABC-Klinkergruppe — мастерство, рожденное традициями&lt;/h1&gt;
+  &lt;p&gt;Где-то в самом сердце Германии, среди живописных пейзажей, расположилась фабрика, чье имя стало синонимом надежности и изысканности на рынке строительных материалов. ABC-Klinkergruppe — это не просто производитель плитки, керамогранита и клинкерных ступеней, это настоящая фабрика идей, где каждый продукт воплощает в себе вековые традиции немецкого качества и современные технологии.&lt;/p&gt;
 &lt;/section&gt;
 &lt;section&gt;
-  &lt;h2&gt;Технологическое превосходство и внимание к деталям&lt;/h2&gt;
-  &lt;p&gt;Фабрика Rak Ceramics поражает своими масштабами и мощностью. Её производственные линии — это симфония современных технологий: передовые печи, роботизированные системы резки и уникальные методы декорирования. Каждый этап производства здесь — это смесь инженерной точности и дизайнерской креативности. Продукция фабрики отличается исключительной стойкостью, экологической безопасностью и безупречной эстетикой.&lt;/p&gt;
+  &lt;h2&gt;Искусство создавать долговечность&lt;/h2&gt;
+  &lt;p&gt;Фабрика ABC-Klinkergruppe с любовью относится к каждому этапу производства. Здесь сырье проходит строгий отбор, а передовые технологии переплетаются с ручной работой. Именно благодаря такому подходу продукция фабрики становится эталоном качества, выдерживая испытания временем, погодой и нагрузками. Будь то клинкерные ступени, мозаика или керамогранит — каждый элемент создан с вниманием к мельчайшим деталям.&lt;/p&gt;
 &lt;/section&gt;
 &lt;section&gt;
-  &lt;h2&gt;Продукция, вдохновлённая природой и культурой&lt;/h2&gt;
-  &lt;p&gt;Плитка, керамогранит, мозаика, клинкерные ступени — всё, что создаётся на фабрике Rak Ceramics, вдохновлено природной красотой и культурным наследием региона. От мягких оттенков песка до насыщенных цветов восточного орнамента — каждая коллекция отражает гармонию мира вокруг нас. При этом фабрика использует инновационные технологии цифровой печати, создавая текстуры, которые невозможно отличить от натурального камня, дерева или мрамора.&lt;/p&gt;
+  &lt;h2&gt;Продукция, которая вдохновляет&lt;/h2&gt;
+  &lt;p&gt;Каждое изделие от ABC-Klinkergruppe — это маленький шедевр, способный преобразить любое пространство. Ассортимент фабрики охватывает широкий спектр решений: от классической плитки строгих форм до современных дизайнерских коллекций. Особая гордость — клинкерные ступени, которые не только функциональны, но и невероятно эстетичны. Они идеально подходят для архитектурных проектов любой сложности, создавая гармонию между практичностью и стилем.&lt;/p&gt;
 &lt;/section&gt;
 &lt;section&gt;
-  &lt;h2&gt;Международное признание и уникальные факты&lt;/h2&gt;
-  &lt;p&gt;Rak Ceramics — один из крупнейших производителей плитки в мире, и её продукция экспортируется в более чем 150 стран. Ежегодно фабрика выпускает более 123 миллионов квадратных метров плитки, соперничая с мировыми лидерами в своей отрасли. Интересно, что именно Rak Ceramics первой в регионе внедрила технологию ультратонкого керамогранита, который сочетает лёгкость и невероятную прочность.&lt;/p&gt;
+  &lt;h2&gt;Интересные факты: что делает ABC-Klinkergruppe уникальной?&lt;/h2&gt;
+  &lt;ul&gt;
+    &lt;li&gt;&lt;strong&gt;Немецкое качество:&lt;/strong&gt; Фабрика существует более 135 лет, сохраняя непревзойденный стандарт производства.&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Экологичность:&lt;/strong&gt; Все материалы изготавливаются с минимальным воздействием на окружающую среду. Это не просто плитка, а вклад в устойчивое будущее.&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Глобальное признание:&lt;/strong&gt; Продукция ABC-Klinkergruppe украшает дома, коммерческие здания и общественные пространства по всему миру.&lt;/li&gt;
+    &lt;li&gt;&lt;strong&gt;Индивидуальный подход:&lt;/strong&gt; Возможность кастомизации продукции для уникальных проектов — от оттенка до формы.&lt;/li&gt;
+  &lt;/ul&gt;
 &lt;/section&gt;
 &lt;section&gt;
-  &lt;h2&gt;Доверие профессионалов и вдохновение для каждого&lt;/h2&gt;
-  &lt;p&gt;Архитекторы, дизайнеры и строители по всему миру выбирают &lt;strong&gt;Rak Ceramics&lt;/strong&gt; за её качество и универсальность. От стильных интерьеров домов до масштабных коммерческих проектов — плитка фабрики становится основой для самых амбициозных идей. И это неудивительно, ведь в каждом изделии бренда чувствуется душа мастеров, которые с любовью создают эти шедевры.&lt;/p&gt;
+  &lt;h2&gt;Доверие, проверенное временем&lt;/h2&gt;
+  &lt;p&gt;Сегодня ABC-Klinkergruppe — это имя, которому доверяют архитекторы, дизайнеры и строители по всему миру. Компания, известная в России как "АБЦ-Клинкергруппе", завоевала репутацию благодаря сочетанию инноваций и традиционного ремесленного мастерства. Здесь каждый продукт — это результат работы талантливых людей, которые знают, как превратить обычную плитку в искусство.&lt;/p&gt;
 &lt;/section&gt;
 &lt;section&gt;
-  &lt;h2&gt;Rak Ceramics: создавая пространство мечты&lt;/h2&gt;
-  &lt;p&gt;Ищете идеальное сочетание красоты, долговечности и функциональности? Добро пожаловать в мир &lt;em&gt;Рак Керамикс&lt;/em&gt;, где каждая плитка — это приглашение в мир элегантности и стиля. Здесь ценят не просто материалы, а эмоции, которые они вызывают. Rak Ceramics — это фабрика, которая превращает мечты в реальность, квадратный метр за квадратным метром.&lt;/p&gt;
+  &lt;h2&gt;ABC-Klinkergruppe: создавая прочный фундамент красоты&lt;/h2&gt;
+  &lt;p&gt;Эта фабрика — не просто про производство, это про вдохновение. Если вы ищете продукцию, которая способна соединить эстетику, функциональность и долговечность, то "АБЦ-Клинкергруппе" станет вашим идеальным выбором. Здесь создают не просто материалы, а историю, которая сияет в каждом квадратном метре.&lt;/p&gt;
 &lt;/section&gt;</t>
   </si>
 </sst>
@@ -474,10 +545,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +585,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
